--- a/Code/Results/Cases/Case_1_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2730985946956963</v>
+        <v>0.1424918639367689</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05037307490930232</v>
+        <v>0.01666762993355775</v>
       </c>
       <c r="E2">
-        <v>1.427286060131479</v>
+        <v>0.4245806148541504</v>
       </c>
       <c r="F2">
-        <v>0.3915265037265456</v>
+        <v>0.4134880438093163</v>
       </c>
       <c r="G2">
-        <v>0.2875981698497867</v>
+        <v>0.2638777770573171</v>
       </c>
       <c r="H2">
-        <v>0.2087646836115624</v>
+        <v>0.4207054203120748</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.128303466738203</v>
+        <v>0.6674196183508059</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6968823864506248</v>
+        <v>1.114047915013927</v>
       </c>
       <c r="O2">
-        <v>0.9983080847964629</v>
+        <v>1.289226636290863</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2389014085051571</v>
+        <v>0.1329167770221034</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.04422944443330579</v>
+        <v>0.01465201566882968</v>
       </c>
       <c r="E3">
-        <v>1.226900554358252</v>
+        <v>0.3704154376978721</v>
       </c>
       <c r="F3">
-        <v>0.3544600995566682</v>
+        <v>0.4077945561905594</v>
       </c>
       <c r="G3">
-        <v>0.2588025247640005</v>
+        <v>0.2594061449338696</v>
       </c>
       <c r="H3">
-        <v>0.2009052379909164</v>
+        <v>0.4222210729690019</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.870901248260651</v>
+        <v>0.5860841411203523</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7142809699486179</v>
+        <v>1.122577175422137</v>
       </c>
       <c r="O3">
-        <v>0.9204459993703011</v>
+        <v>1.282656538331864</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2180344594269883</v>
+        <v>0.1271055766230376</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04044667326505902</v>
+        <v>0.01340807465636118</v>
       </c>
       <c r="E4">
-        <v>1.105925294292675</v>
+        <v>0.3372382214265031</v>
       </c>
       <c r="F4">
-        <v>0.3325137038460966</v>
+        <v>0.4046176420065564</v>
       </c>
       <c r="G4">
-        <v>0.2418631185225664</v>
+        <v>0.2569064568466288</v>
       </c>
       <c r="H4">
-        <v>0.1965409721478437</v>
+        <v>0.4233858122323966</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.712811914627309</v>
+        <v>0.5359062117629207</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7258802743969426</v>
+        <v>1.1282589357684</v>
       </c>
       <c r="O4">
-        <v>0.8751668761985059</v>
+        <v>1.279624698882856</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.209560783482786</v>
+        <v>0.1247547377220002</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03890232712278419</v>
+        <v>0.01289959950418762</v>
       </c>
       <c r="E5">
-        <v>1.057067698350835</v>
+        <v>0.3237369150036642</v>
       </c>
       <c r="F5">
-        <v>0.3237593613125185</v>
+        <v>0.4034030728197351</v>
       </c>
       <c r="G5">
-        <v>0.235131519322394</v>
+        <v>0.2559494082885081</v>
       </c>
       <c r="H5">
-        <v>0.1948719638341885</v>
+        <v>0.4239192941078826</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.648357375007095</v>
+        <v>0.5153996128085794</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7308314902354596</v>
+        <v>1.130686268287917</v>
       </c>
       <c r="O5">
-        <v>0.8573054003222751</v>
+        <v>1.278640633811051</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.20815544991612</v>
+        <v>0.12436543145337</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0386457132728566</v>
+        <v>0.0128150745055251</v>
       </c>
       <c r="E6">
-        <v>1.04897939585554</v>
+        <v>0.3214961165082713</v>
       </c>
       <c r="F6">
-        <v>0.3223166924253178</v>
+        <v>0.4032062251180832</v>
       </c>
       <c r="G6">
-        <v>0.2340236680636991</v>
+        <v>0.2557942041936414</v>
       </c>
       <c r="H6">
-        <v>0.1946012527476384</v>
+        <v>0.4240114313411283</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.637652241437905</v>
+        <v>0.5119909946703842</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.731667018012601</v>
+        <v>1.131096091560934</v>
       </c>
       <c r="O6">
-        <v>0.8543738732906405</v>
+        <v>1.278492399506376</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.217920063750185</v>
+        <v>0.1270738022024887</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04042585738714877</v>
+        <v>0.0134012234468841</v>
       </c>
       <c r="E7">
-        <v>1.105264697269376</v>
+        <v>0.3370560644852389</v>
       </c>
       <c r="F7">
-        <v>0.3323948941228139</v>
+        <v>0.4046009379772357</v>
       </c>
       <c r="G7">
-        <v>0.2417716592912811</v>
+        <v>0.2568933006824636</v>
       </c>
       <c r="H7">
-        <v>0.1965180285057713</v>
+        <v>0.4233927687521799</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.711942813698045</v>
+        <v>0.5356298887964499</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.725946147396499</v>
+        <v>1.128291218091356</v>
       </c>
       <c r="O7">
-        <v>0.8749236590930707</v>
+        <v>1.279610410169283</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2612785229275687</v>
+        <v>0.1391763822185084</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0482568272816124</v>
+        <v>0.01597398452878451</v>
       </c>
       <c r="E8">
-        <v>1.35771632099933</v>
+        <v>0.405886824367073</v>
       </c>
       <c r="F8">
-        <v>0.3785678593721471</v>
+        <v>0.4114586500460931</v>
       </c>
       <c r="G8">
-        <v>0.2775062476714396</v>
+        <v>0.2622847714219105</v>
       </c>
       <c r="H8">
-        <v>0.2059548891727445</v>
+        <v>0.4211794058253417</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.039546989049654</v>
+        <v>0.6394250778587889</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7026874600074038</v>
+        <v>1.116896571435248</v>
       </c>
       <c r="O8">
-        <v>0.9709080854363492</v>
+        <v>1.286752896241723</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3474831648030516</v>
+        <v>0.1634416258150964</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06353912883278667</v>
+        <v>0.02096743215687269</v>
       </c>
       <c r="E9">
-        <v>1.873005555548289</v>
+        <v>0.5415777296337865</v>
       </c>
       <c r="F9">
-        <v>0.4763014508452272</v>
+        <v>0.427444864918499</v>
       </c>
       <c r="G9">
-        <v>0.354191602041027</v>
+        <v>0.2748205230819138</v>
       </c>
       <c r="H9">
-        <v>0.228440092829814</v>
+        <v>0.4186984486297121</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.682694662273946</v>
+        <v>0.8410443678739625</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6646367568702658</v>
+        <v>1.098075133910257</v>
       </c>
       <c r="O9">
-        <v>1.181407458589717</v>
+        <v>1.308740759541166</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4117545233072093</v>
+        <v>0.1815862360846978</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0747371041256315</v>
+        <v>0.02460306634682752</v>
       </c>
       <c r="E10">
-        <v>2.269930652731802</v>
+        <v>0.6418191604632568</v>
       </c>
       <c r="F10">
-        <v>0.553602123823481</v>
+        <v>0.440750193474031</v>
       </c>
       <c r="G10">
-        <v>0.415657640635402</v>
+        <v>0.2852451615439975</v>
       </c>
       <c r="H10">
-        <v>0.2478637565768622</v>
+        <v>0.4180122960958954</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.157313039636421</v>
+        <v>0.9879655934633718</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6417110361577443</v>
+        <v>1.086387834586539</v>
       </c>
       <c r="O10">
-        <v>1.352965288756366</v>
+        <v>1.329805625245228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4412481445556438</v>
+        <v>0.1899080348073596</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07982856854959408</v>
+        <v>0.02624953252309581</v>
       </c>
       <c r="E11">
-        <v>2.456016922518486</v>
+        <v>0.6875660724692665</v>
       </c>
       <c r="F11">
-        <v>0.5902323469066388</v>
+        <v>0.4471448160782217</v>
       </c>
       <c r="G11">
-        <v>0.4450005930719101</v>
+        <v>0.2902552719902189</v>
       </c>
       <c r="H11">
-        <v>0.257447180016058</v>
+        <v>0.4179476561639177</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.374100247925156</v>
+        <v>1.05453463850435</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6324737831066329</v>
+        <v>1.081534409573983</v>
       </c>
       <c r="O11">
-        <v>1.435493617613815</v>
+        <v>1.340464715721652</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4524578896165679</v>
+        <v>0.1930688545902228</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08175651512647875</v>
+        <v>0.02687190909173864</v>
       </c>
       <c r="E12">
-        <v>2.527422990323288</v>
+        <v>0.7049121733138861</v>
       </c>
       <c r="F12">
-        <v>0.6043387293542253</v>
+        <v>0.4496156591469713</v>
       </c>
       <c r="G12">
-        <v>0.4563352328529504</v>
+        <v>0.2921912810256515</v>
       </c>
       <c r="H12">
-        <v>0.2611943556215692</v>
+        <v>0.4179588178129165</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.456356397200125</v>
+        <v>1.079703441420634</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6291562561390052</v>
+        <v>1.079763043806231</v>
       </c>
       <c r="O12">
-        <v>1.467464442396135</v>
+        <v>1.344656568522879</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4500417688098963</v>
+        <v>0.1923876946591605</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08134129612231789</v>
+        <v>0.02673791891829325</v>
       </c>
       <c r="E13">
-        <v>2.512000139556818</v>
+        <v>0.7011753422889484</v>
       </c>
       <c r="F13">
-        <v>0.6012897875755527</v>
+        <v>0.4490813219313807</v>
       </c>
       <c r="G13">
-        <v>0.4538837799461959</v>
+        <v>0.2917725974444068</v>
       </c>
       <c r="H13">
-        <v>0.2603818998347123</v>
+        <v>0.4179548280781376</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.438633160696213</v>
+        <v>1.074284662611831</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6298625701349749</v>
+        <v>1.080141581888235</v>
       </c>
       <c r="O13">
-        <v>1.460545716135414</v>
+        <v>1.343746851933417</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4421695266851202</v>
+        <v>0.1901678874207562</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07998718176999375</v>
+        <v>0.02630075818205313</v>
       </c>
       <c r="E14">
-        <v>2.461871823883044</v>
+        <v>0.6889926813662157</v>
       </c>
       <c r="F14">
-        <v>0.5913880230820183</v>
+        <v>0.4473471040703032</v>
       </c>
       <c r="G14">
-        <v>0.4459284815650193</v>
+        <v>0.2904137697028517</v>
       </c>
       <c r="H14">
-        <v>0.2577530301849293</v>
+        <v>0.4179478598844781</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.380864007993807</v>
+        <v>1.056606088424076</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6321971782941347</v>
+        <v>1.081387345538701</v>
       </c>
       <c r="O14">
-        <v>1.43810901524219</v>
+        <v>1.340806461915605</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4373530424743137</v>
+        <v>0.188809427112318</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07915774601663372</v>
+        <v>0.02603283959023628</v>
       </c>
       <c r="E15">
-        <v>2.43129371015597</v>
+        <v>0.6815334604373504</v>
       </c>
       <c r="F15">
-        <v>0.5853543166475745</v>
+        <v>0.4462912757355397</v>
       </c>
       <c r="G15">
-        <v>0.4410854487461648</v>
+        <v>0.2895865078562849</v>
       </c>
       <c r="H15">
-        <v>0.2561584898406153</v>
+        <v>0.4179482344588621</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.345501192845404</v>
+        <v>1.04577227890897</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.633650968083181</v>
+        <v>1.082159072288412</v>
       </c>
       <c r="O15">
-        <v>1.424461856263434</v>
+        <v>1.339025657152689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4098325638508982</v>
+        <v>0.1810437323711511</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07440433760297793</v>
+        <v>0.02449531353814649</v>
       </c>
       <c r="E16">
-        <v>2.257892612416171</v>
+        <v>0.6388325833788002</v>
       </c>
       <c r="F16">
-        <v>0.551239795916203</v>
+        <v>0.4403391850679057</v>
       </c>
       <c r="G16">
-        <v>0.4137698498942939</v>
+        <v>0.2849231524730413</v>
       </c>
       <c r="H16">
-        <v>0.2472533876639318</v>
+        <v>0.418021504947518</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.143166274996048</v>
+        <v>0.9836096933748877</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.642339453381382</v>
+        <v>1.086714330491944</v>
       </c>
       <c r="O16">
-        <v>1.347668314620961</v>
+        <v>1.329130749868057</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3930182508146913</v>
+        <v>0.176296931377891</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07148781909924651</v>
+        <v>0.02355016675299026</v>
       </c>
       <c r="E17">
-        <v>2.153028981840563</v>
+        <v>0.6126756985582489</v>
       </c>
       <c r="F17">
-        <v>0.5307038472408649</v>
+        <v>0.4367754720381214</v>
       </c>
       <c r="G17">
-        <v>0.3973831899871811</v>
+        <v>0.2821311378158526</v>
       </c>
       <c r="H17">
-        <v>0.2419891297502801</v>
+        <v>0.4181298786557477</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.019291004745895</v>
+        <v>0.9454059528473522</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6479810470152074</v>
+        <v>1.089627405503116</v>
       </c>
       <c r="O17">
-        <v>1.301757515006756</v>
+        <v>1.323336762712756</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3833709496601045</v>
+        <v>0.1735730837329044</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06981005628897208</v>
+        <v>0.02300584899285241</v>
       </c>
       <c r="E18">
-        <v>2.093224388594521</v>
+        <v>0.5976446473135724</v>
       </c>
       <c r="F18">
-        <v>0.5190284858865368</v>
+        <v>0.4347578958043812</v>
       </c>
       <c r="G18">
-        <v>0.3880864863585316</v>
+        <v>0.2805504439716486</v>
       </c>
       <c r="H18">
-        <v>0.2390309343327601</v>
+        <v>0.4182155046495524</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.948121715991277</v>
+        <v>0.9234071898376328</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6513375414702693</v>
+        <v>1.091346531279441</v>
       </c>
       <c r="O18">
-        <v>1.275768248756805</v>
+        <v>1.320105506600243</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3801085083408111</v>
+        <v>0.1726519388449361</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.0692419418600636</v>
+        <v>0.02282143432149297</v>
       </c>
       <c r="E19">
-        <v>2.073059071282344</v>
+        <v>0.5925576937369925</v>
       </c>
       <c r="F19">
-        <v>0.5150981184906911</v>
+        <v>0.4340803006156975</v>
       </c>
       <c r="G19">
-        <v>0.384960139104777</v>
+        <v>0.2800195680491839</v>
       </c>
       <c r="H19">
-        <v>0.2380409963945311</v>
+        <v>0.4182484951031284</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.92403778141437</v>
+        <v>0.9159545319227504</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6524928941884269</v>
+        <v>1.091936089070806</v>
       </c>
       <c r="O19">
-        <v>1.267038271466163</v>
+        <v>1.319028835237702</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3948056647777207</v>
+        <v>0.1768015769168727</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0717983122225192</v>
+        <v>0.02365085139229706</v>
       </c>
       <c r="E20">
-        <v>2.164138096714566</v>
+        <v>0.6154587140373877</v>
       </c>
       <c r="F20">
-        <v>0.5328756490480302</v>
+        <v>0.4371515039557892</v>
       </c>
       <c r="G20">
-        <v>0.399114112031242</v>
+        <v>0.2824257425932757</v>
       </c>
       <c r="H20">
-        <v>0.2425422346685053</v>
+        <v>0.4181159310613651</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.032469153626153</v>
+        <v>0.9494754003173398</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6473688760627851</v>
+        <v>1.089312791666941</v>
       </c>
       <c r="O20">
-        <v>1.306601082219743</v>
+        <v>1.323943054289742</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4444806425526764</v>
+        <v>0.190819641456244</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08038491777359269</v>
+        <v>0.02642919318054027</v>
       </c>
       <c r="E21">
-        <v>2.476568989097586</v>
+        <v>0.6925703937951226</v>
       </c>
       <c r="F21">
-        <v>0.5942898185409433</v>
+        <v>0.4478551455571065</v>
       </c>
       <c r="G21">
-        <v>0.4482588848808433</v>
+        <v>0.2908118355028932</v>
       </c>
       <c r="H21">
-        <v>0.258521896857502</v>
+        <v>0.4179489389676974</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.397827456605398</v>
+        <v>1.061799794208184</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6315064756186857</v>
+        <v>1.081019629853145</v>
       </c>
       <c r="O21">
-        <v>1.444679076493799</v>
+        <v>1.341665900484912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4771881685071691</v>
+        <v>0.2000367408057429</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08599644044782195</v>
+        <v>0.02823854410111437</v>
       </c>
       <c r="E22">
-        <v>2.686316077545627</v>
+        <v>0.7431006487879017</v>
       </c>
       <c r="F22">
-        <v>0.6358121275652167</v>
+        <v>0.4551382515342652</v>
       </c>
       <c r="G22">
-        <v>0.4816912446493262</v>
+        <v>0.296518847432381</v>
       </c>
       <c r="H22">
-        <v>0.2696598165355084</v>
+        <v>0.4180475572250515</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.637583510166735</v>
+        <v>1.134979792685044</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6221957512906897</v>
+        <v>1.075987267571151</v>
       </c>
       <c r="O22">
-        <v>1.539152183953604</v>
+        <v>1.354155414329227</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4597079040256773</v>
+        <v>0.1951123919757549</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08300139414083674</v>
+        <v>0.02727346339954551</v>
       </c>
       <c r="E23">
-        <v>2.573809012823673</v>
+        <v>0.7161189506309142</v>
       </c>
       <c r="F23">
-        <v>0.6135155039518168</v>
+        <v>0.4512247458090712</v>
       </c>
       <c r="G23">
-        <v>0.4637189187427992</v>
+        <v>0.2934521209142957</v>
       </c>
       <c r="H23">
-        <v>0.2636479913148122</v>
+        <v>0.4179758963362445</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.50951889752605</v>
+        <v>1.095943727451072</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6270652613946694</v>
+        <v>1.078637686604594</v>
       </c>
       <c r="O23">
-        <v>1.488316649410592</v>
+        <v>1.347406347243918</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3939975145978849</v>
+        <v>0.1765734106068493</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07165794147200444</v>
+        <v>0.02360533479282623</v>
       </c>
       <c r="E24">
-        <v>2.159114172468662</v>
+        <v>0.6142004914321717</v>
       </c>
       <c r="F24">
-        <v>0.5318933711528189</v>
+        <v>0.4369814025952437</v>
       </c>
       <c r="G24">
-        <v>0.398331177120383</v>
+        <v>0.2822924755617464</v>
       </c>
       <c r="H24">
-        <v>0.2422919639996479</v>
+        <v>0.4181221641273538</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.026511164952183</v>
+        <v>0.9476357118150815</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.64764528704859</v>
+        <v>1.089454890393867</v>
       </c>
       <c r="O24">
-        <v>1.304410048069826</v>
+        <v>1.323668639087742</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3240145328026927</v>
+        <v>0.15682103730704</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05941128884767721</v>
+        <v>0.01962226727788874</v>
       </c>
       <c r="E25">
-        <v>1.730858591074664</v>
+        <v>0.5047815588427227</v>
       </c>
       <c r="F25">
-        <v>0.4489825572063992</v>
+        <v>0.4228471017036171</v>
       </c>
       <c r="G25">
-        <v>0.3326306904967709</v>
+        <v>0.2712172608834891</v>
       </c>
       <c r="H25">
-        <v>0.2218841774011509</v>
+        <v>0.4191702351819373</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.508467258622574</v>
+        <v>0.7867106198928013</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6740792748467896</v>
+        <v>1.102790379958961</v>
       </c>
       <c r="O25">
-        <v>1.121749892566612</v>
+        <v>1.301933377085987</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_112/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_112/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424918639367689</v>
+        <v>0.2730985946958242</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01666762993355775</v>
+        <v>0.05037307490925969</v>
       </c>
       <c r="E2">
-        <v>0.4245806148541504</v>
+        <v>1.427286060131451</v>
       </c>
       <c r="F2">
-        <v>0.4134880438093163</v>
+        <v>0.3915265037265314</v>
       </c>
       <c r="G2">
-        <v>0.2638777770573171</v>
+        <v>0.2875981698498578</v>
       </c>
       <c r="H2">
-        <v>0.4207054203120748</v>
+        <v>0.2087646836116761</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6674196183508059</v>
+        <v>2.128303466738174</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.114047915013927</v>
+        <v>0.6968823864506817</v>
       </c>
       <c r="O2">
-        <v>1.289226636290863</v>
+        <v>0.9983080847964629</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329167770221034</v>
+        <v>0.2389014085049439</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01465201566882968</v>
+        <v>0.04422944443339105</v>
       </c>
       <c r="E3">
-        <v>0.3704154376978721</v>
+        <v>1.22690055435821</v>
       </c>
       <c r="F3">
-        <v>0.4077945561905594</v>
+        <v>0.3544600995566398</v>
       </c>
       <c r="G3">
-        <v>0.2594061449338696</v>
+        <v>0.2588025247639507</v>
       </c>
       <c r="H3">
-        <v>0.4222210729690019</v>
+        <v>0.2009052379909093</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5860841411203523</v>
+        <v>1.870901248260537</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.122577175422137</v>
+        <v>0.7142809699486321</v>
       </c>
       <c r="O3">
-        <v>1.282656538331864</v>
+        <v>0.9204459993702159</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271055766230376</v>
+        <v>0.2180344594268888</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01340807465636118</v>
+        <v>0.04044667326480322</v>
       </c>
       <c r="E4">
-        <v>0.3372382214265031</v>
+        <v>1.105925294292675</v>
       </c>
       <c r="F4">
-        <v>0.4046176420065564</v>
+        <v>0.3325137038460895</v>
       </c>
       <c r="G4">
-        <v>0.2569064568466288</v>
+        <v>0.2418631185225522</v>
       </c>
       <c r="H4">
-        <v>0.4233858122323966</v>
+        <v>0.1965409721478366</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5359062117629207</v>
+        <v>1.712811914627281</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.1282589357684</v>
+        <v>0.7258802743969426</v>
       </c>
       <c r="O4">
-        <v>1.279624698882856</v>
+        <v>0.8751668761984064</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1247547377220002</v>
+        <v>0.2095607834825444</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01289959950418762</v>
+        <v>0.0389023271229334</v>
       </c>
       <c r="E5">
-        <v>0.3237369150036642</v>
+        <v>1.057067698350878</v>
       </c>
       <c r="F5">
-        <v>0.4034030728197351</v>
+        <v>0.3237593613125185</v>
       </c>
       <c r="G5">
-        <v>0.2559494082885081</v>
+        <v>0.2351315193223655</v>
       </c>
       <c r="H5">
-        <v>0.4239192941078826</v>
+        <v>0.1948719638341885</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5153996128085794</v>
+        <v>1.64835737500718</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.130686268287917</v>
+        <v>0.7308314902354667</v>
       </c>
       <c r="O5">
-        <v>1.278640633811051</v>
+        <v>0.8573054003223177</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.12436543145337</v>
+        <v>0.2081554499161342</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0128150745055251</v>
+        <v>0.03864571327297739</v>
       </c>
       <c r="E6">
-        <v>0.3214961165082713</v>
+        <v>1.048979395855554</v>
       </c>
       <c r="F6">
-        <v>0.4032062251180832</v>
+        <v>0.3223166924253107</v>
       </c>
       <c r="G6">
-        <v>0.2557942041936414</v>
+        <v>0.2340236680637062</v>
       </c>
       <c r="H6">
-        <v>0.4240114313411283</v>
+        <v>0.1946012527476384</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5119909946703842</v>
+        <v>1.637652241437934</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.131096091560934</v>
+        <v>0.7316670180125513</v>
       </c>
       <c r="O6">
-        <v>1.278492399506376</v>
+        <v>0.8543738732906263</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1270738022024887</v>
+        <v>0.2179200637503129</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0134012234468841</v>
+        <v>0.04042585738707771</v>
       </c>
       <c r="E7">
-        <v>0.3370560644852389</v>
+        <v>1.105264697269419</v>
       </c>
       <c r="F7">
-        <v>0.4046009379772357</v>
+        <v>0.3323948941228423</v>
       </c>
       <c r="G7">
-        <v>0.2568933006824636</v>
+        <v>0.2417716592912882</v>
       </c>
       <c r="H7">
-        <v>0.4233927687521799</v>
+        <v>0.1965180285056505</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5356298887964499</v>
+        <v>1.71194281369813</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.128291218091356</v>
+        <v>0.7259461473964919</v>
       </c>
       <c r="O7">
-        <v>1.279610410169283</v>
+        <v>0.8749236590931133</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391763822185084</v>
+        <v>0.2612785229276966</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01597398452878451</v>
+        <v>0.0482568272816053</v>
       </c>
       <c r="E8">
-        <v>0.405886824367073</v>
+        <v>1.357716320999373</v>
       </c>
       <c r="F8">
-        <v>0.4114586500460931</v>
+        <v>0.3785678593721471</v>
       </c>
       <c r="G8">
-        <v>0.2622847714219105</v>
+        <v>0.2775062476714965</v>
       </c>
       <c r="H8">
-        <v>0.4211794058253417</v>
+        <v>0.2059548891727445</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6394250778587889</v>
+        <v>2.039546989049683</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.116896571435248</v>
+        <v>0.7026874600074038</v>
       </c>
       <c r="O8">
-        <v>1.286752896241723</v>
+        <v>0.9709080854363492</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1634416258150964</v>
+        <v>0.3474831648031653</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02096743215687269</v>
+        <v>0.06353912883285773</v>
       </c>
       <c r="E9">
-        <v>0.5415777296337865</v>
+        <v>1.873005555548289</v>
       </c>
       <c r="F9">
-        <v>0.427444864918499</v>
+        <v>0.4763014508452486</v>
       </c>
       <c r="G9">
-        <v>0.2748205230819138</v>
+        <v>0.354191602041027</v>
       </c>
       <c r="H9">
-        <v>0.4186984486297121</v>
+        <v>0.228440092829814</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8410443678739625</v>
+        <v>2.682694662274002</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.098075133910257</v>
+        <v>0.6646367568701947</v>
       </c>
       <c r="O9">
-        <v>1.308740759541166</v>
+        <v>1.181407458589689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1815862360846978</v>
+        <v>0.4117545233073372</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02460306634682752</v>
+        <v>0.07473710412547518</v>
       </c>
       <c r="E10">
-        <v>0.6418191604632568</v>
+        <v>2.269930652731759</v>
       </c>
       <c r="F10">
-        <v>0.440750193474031</v>
+        <v>0.5536021238234881</v>
       </c>
       <c r="G10">
-        <v>0.2852451615439975</v>
+        <v>0.4156576406354446</v>
       </c>
       <c r="H10">
-        <v>0.4180122960958954</v>
+        <v>0.2478637565769759</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9879655934633718</v>
+        <v>3.157313039636477</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.086387834586539</v>
+        <v>0.641711036157794</v>
       </c>
       <c r="O10">
-        <v>1.329805625245228</v>
+        <v>1.352965288756366</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1899080348073596</v>
+        <v>0.4412481445556438</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02624953252309581</v>
+        <v>0.07982856854942355</v>
       </c>
       <c r="E11">
-        <v>0.6875660724692665</v>
+        <v>2.456016922518486</v>
       </c>
       <c r="F11">
-        <v>0.4471448160782217</v>
+        <v>0.5902323469066317</v>
       </c>
       <c r="G11">
-        <v>0.2902552719902189</v>
+        <v>0.4450005930719811</v>
       </c>
       <c r="H11">
-        <v>0.4179476561639177</v>
+        <v>0.2574471800160438</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.05453463850435</v>
+        <v>3.374100247925185</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.081534409573983</v>
+        <v>0.6324737831066756</v>
       </c>
       <c r="O11">
-        <v>1.340464715721652</v>
+        <v>1.435493617613758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1930688545902228</v>
+        <v>0.4524578896165821</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02687190909173864</v>
+        <v>0.08175651512630822</v>
       </c>
       <c r="E12">
-        <v>0.7049121733138861</v>
+        <v>2.527422990323203</v>
       </c>
       <c r="F12">
-        <v>0.4496156591469713</v>
+        <v>0.6043387293542537</v>
       </c>
       <c r="G12">
-        <v>0.2921912810256515</v>
+        <v>0.4563352328529504</v>
       </c>
       <c r="H12">
-        <v>0.4179588178129165</v>
+        <v>0.2611943556215692</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.079703441420634</v>
+        <v>3.45635639720021</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.079763043806231</v>
+        <v>0.629156256139062</v>
       </c>
       <c r="O12">
-        <v>1.344656568522879</v>
+        <v>1.467464442396192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1923876946591605</v>
+        <v>0.4500417688100242</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02673791891829325</v>
+        <v>0.08134129612244578</v>
       </c>
       <c r="E13">
-        <v>0.7011753422889484</v>
+        <v>2.512000139556804</v>
       </c>
       <c r="F13">
-        <v>0.4490813219313807</v>
+        <v>0.6012897875755527</v>
       </c>
       <c r="G13">
-        <v>0.2917725974444068</v>
+        <v>0.4538837799461248</v>
       </c>
       <c r="H13">
-        <v>0.4179548280781376</v>
+        <v>0.2603818998346128</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.074284662611831</v>
+        <v>3.43863316069627</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.080141581888235</v>
+        <v>0.6298625701349749</v>
       </c>
       <c r="O13">
-        <v>1.343746851933417</v>
+        <v>1.460545716135442</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1901678874207562</v>
+        <v>0.4421695266851344</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02630075818205313</v>
+        <v>0.07998718177000796</v>
       </c>
       <c r="E14">
-        <v>0.6889926813662157</v>
+        <v>2.461871823883044</v>
       </c>
       <c r="F14">
-        <v>0.4473471040703032</v>
+        <v>0.5913880230820325</v>
       </c>
       <c r="G14">
-        <v>0.2904137697028517</v>
+        <v>0.4459284815650193</v>
       </c>
       <c r="H14">
-        <v>0.4179478598844781</v>
+        <v>0.2577530301848157</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.056606088424076</v>
+        <v>3.380864007993779</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.081387345538701</v>
+        <v>0.6321971782941844</v>
       </c>
       <c r="O14">
-        <v>1.340806461915605</v>
+        <v>1.438109015242247</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.188809427112318</v>
+        <v>0.4373530424744416</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02603283959023628</v>
+        <v>0.0791577460168682</v>
       </c>
       <c r="E15">
-        <v>0.6815334604373504</v>
+        <v>2.431293710155984</v>
       </c>
       <c r="F15">
-        <v>0.4462912757355397</v>
+        <v>0.5853543166475959</v>
       </c>
       <c r="G15">
-        <v>0.2895865078562849</v>
+        <v>0.4410854487461933</v>
       </c>
       <c r="H15">
-        <v>0.4179482344588621</v>
+        <v>0.2561584898406153</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.04577227890897</v>
+        <v>3.345501192845376</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.082159072288412</v>
+        <v>0.6336509680832307</v>
       </c>
       <c r="O15">
-        <v>1.339025657152689</v>
+        <v>1.424461856263434</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1810437323711511</v>
+        <v>0.4098325638507703</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02449531353814649</v>
+        <v>0.07440433760297793</v>
       </c>
       <c r="E16">
-        <v>0.6388325833788002</v>
+        <v>2.257892612416157</v>
       </c>
       <c r="F16">
-        <v>0.4403391850679057</v>
+        <v>0.5512397959161959</v>
       </c>
       <c r="G16">
-        <v>0.2849231524730413</v>
+        <v>0.4137698498942939</v>
       </c>
       <c r="H16">
-        <v>0.418021504947518</v>
+        <v>0.2472533876639318</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9836096933748877</v>
+        <v>3.143166274996048</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.086714330491944</v>
+        <v>0.642339453381382</v>
       </c>
       <c r="O16">
-        <v>1.329130749868057</v>
+        <v>1.347668314620961</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.176296931377891</v>
+        <v>0.3930182508147908</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02355016675299026</v>
+        <v>0.07148781909930335</v>
       </c>
       <c r="E17">
-        <v>0.6126756985582489</v>
+        <v>2.153028981840578</v>
       </c>
       <c r="F17">
-        <v>0.4367754720381214</v>
+        <v>0.5307038472408436</v>
       </c>
       <c r="G17">
-        <v>0.2821311378158526</v>
+        <v>0.3973831899871527</v>
       </c>
       <c r="H17">
-        <v>0.4181298786557477</v>
+        <v>0.2419891297502801</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9454059528473522</v>
+        <v>3.019291004745895</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.089627405503116</v>
+        <v>0.6479810470152216</v>
       </c>
       <c r="O17">
-        <v>1.323336762712756</v>
+        <v>1.301757515006699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1735730837329044</v>
+        <v>0.383370949660204</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02300584899285241</v>
+        <v>0.06981005628881576</v>
       </c>
       <c r="E18">
-        <v>0.5976446473135724</v>
+        <v>2.093224388594507</v>
       </c>
       <c r="F18">
-        <v>0.4347578958043812</v>
+        <v>0.5190284858865439</v>
       </c>
       <c r="G18">
-        <v>0.2805504439716486</v>
+        <v>0.38808648635856</v>
       </c>
       <c r="H18">
-        <v>0.4182155046495524</v>
+        <v>0.2390309343327459</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9234071898376328</v>
+        <v>2.948121715991419</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.091346531279441</v>
+        <v>0.6513375414702622</v>
       </c>
       <c r="O18">
-        <v>1.320105506600243</v>
+        <v>1.275768248756776</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1726519388449361</v>
+        <v>0.3801085083407969</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02282143432149297</v>
+        <v>0.06924194186023414</v>
       </c>
       <c r="E19">
-        <v>0.5925576937369925</v>
+        <v>2.073059071282344</v>
       </c>
       <c r="F19">
-        <v>0.4340803006156975</v>
+        <v>0.5150981184906911</v>
       </c>
       <c r="G19">
-        <v>0.2800195680491839</v>
+        <v>0.3849601391047486</v>
       </c>
       <c r="H19">
-        <v>0.4182484951031284</v>
+        <v>0.2380409963945169</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9159545319227504</v>
+        <v>2.924037781414427</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.091936089070806</v>
+        <v>0.6524928941884269</v>
       </c>
       <c r="O19">
-        <v>1.319028835237702</v>
+        <v>1.267038271466163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1768015769168727</v>
+        <v>0.3948056647776355</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02365085139229706</v>
+        <v>0.07179831222241972</v>
       </c>
       <c r="E20">
-        <v>0.6154587140373877</v>
+        <v>2.164138096714552</v>
       </c>
       <c r="F20">
-        <v>0.4371515039557892</v>
+        <v>0.5328756490480231</v>
       </c>
       <c r="G20">
-        <v>0.2824257425932757</v>
+        <v>0.3991141120311994</v>
       </c>
       <c r="H20">
-        <v>0.4181159310613651</v>
+        <v>0.2425422346685195</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9494754003173398</v>
+        <v>3.032469153626351</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.089312791666941</v>
+        <v>0.6473688760627283</v>
       </c>
       <c r="O20">
-        <v>1.323943054289742</v>
+        <v>1.306601082219771</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.190819641456244</v>
+        <v>0.4444806425527901</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02642919318054027</v>
+        <v>0.0803849177736069</v>
       </c>
       <c r="E21">
-        <v>0.6925703937951226</v>
+        <v>2.476568989097629</v>
       </c>
       <c r="F21">
-        <v>0.4478551455571065</v>
+        <v>0.5942898185409504</v>
       </c>
       <c r="G21">
-        <v>0.2908118355028932</v>
+        <v>0.4482588848809144</v>
       </c>
       <c r="H21">
-        <v>0.4179489389676974</v>
+        <v>0.2585218968573884</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.061799794208184</v>
+        <v>3.397827456605455</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.081019629853145</v>
+        <v>0.6315064756186857</v>
       </c>
       <c r="O21">
-        <v>1.341665900484912</v>
+        <v>1.44467907649377</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2000367408057429</v>
+        <v>0.4771881685072827</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02823854410111437</v>
+        <v>0.0859964404478859</v>
       </c>
       <c r="E22">
-        <v>0.7431006487879017</v>
+        <v>2.686316077545612</v>
       </c>
       <c r="F22">
-        <v>0.4551382515342652</v>
+        <v>0.6358121275652167</v>
       </c>
       <c r="G22">
-        <v>0.296518847432381</v>
+        <v>0.4816912446493404</v>
       </c>
       <c r="H22">
-        <v>0.4180475572250515</v>
+        <v>0.2696598165353947</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.134979792685044</v>
+        <v>3.637583510166792</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.075987267571151</v>
+        <v>0.6221957512906897</v>
       </c>
       <c r="O22">
-        <v>1.354155414329227</v>
+        <v>1.539152183953632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1951123919757549</v>
+        <v>0.4597079040256773</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02727346339954551</v>
+        <v>0.08300139414076568</v>
       </c>
       <c r="E23">
-        <v>0.7161189506309142</v>
+        <v>2.573809012823673</v>
       </c>
       <c r="F23">
-        <v>0.4512247458090712</v>
+        <v>0.613515503951831</v>
       </c>
       <c r="G23">
-        <v>0.2934521209142957</v>
+        <v>0.4637189187427992</v>
       </c>
       <c r="H23">
-        <v>0.4179758963362445</v>
+        <v>0.263647991314798</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.095943727451072</v>
+        <v>3.509518897525936</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.078637686604594</v>
+        <v>0.6270652613946552</v>
       </c>
       <c r="O23">
-        <v>1.347406347243918</v>
+        <v>1.488316649410592</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1765734106068493</v>
+        <v>0.393997514597757</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02360533479282623</v>
+        <v>0.07165794147200444</v>
       </c>
       <c r="E24">
-        <v>0.6142004914321717</v>
+        <v>2.159114172468634</v>
       </c>
       <c r="F24">
-        <v>0.4369814025952437</v>
+        <v>0.5318933711528331</v>
       </c>
       <c r="G24">
-        <v>0.2822924755617464</v>
+        <v>0.398331177120383</v>
       </c>
       <c r="H24">
-        <v>0.4181221641273538</v>
+        <v>0.2422919639997474</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9476357118150815</v>
+        <v>3.026511164952183</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.089454890393867</v>
+        <v>0.6476452870486469</v>
       </c>
       <c r="O24">
-        <v>1.323668639087742</v>
+        <v>1.304410048069855</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.15682103730704</v>
+        <v>0.3240145328026927</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01962226727788874</v>
+        <v>0.05941128884764169</v>
       </c>
       <c r="E25">
-        <v>0.5047815588427227</v>
+        <v>1.730858591074664</v>
       </c>
       <c r="F25">
-        <v>0.4228471017036171</v>
+        <v>0.4489825572063921</v>
       </c>
       <c r="G25">
-        <v>0.2712172608834891</v>
+        <v>0.3326306904967851</v>
       </c>
       <c r="H25">
-        <v>0.4191702351819373</v>
+        <v>0.2218841774012645</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7867106198928013</v>
+        <v>2.508467258622687</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.102790379958961</v>
+        <v>0.6740792748468394</v>
       </c>
       <c r="O25">
-        <v>1.301933377085987</v>
+        <v>1.12174989256664</v>
       </c>
     </row>
   </sheetData>
